--- a/image/substance.xlsx
+++ b/image/substance.xlsx
@@ -753,44 +753,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.51171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.8203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="56.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.18359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="46.51171875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="47.9375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="46.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.50390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.51171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="134.5859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.53125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="133.65234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/substance.xlsx
+++ b/image/substance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="191">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -437,10 +437,6 @@
   </si>
   <si>
     <t>Substance.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Textual description of the substance, comments</t>
@@ -753,44 +749,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.8203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.51171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="56.18359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="56.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="46.328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="47.50390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="46.51171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.9375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.53125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="133.65234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.51171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="134.5859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2334,13 +2330,13 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2406,7 +2402,7 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -2417,7 +2413,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2440,13 +2436,13 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2454,7 +2450,7 @@
         <v>39</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>39</v>
@@ -2499,7 +2495,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2511,10 +2507,10 @@
         <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -2525,7 +2521,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2548,13 +2544,13 @@
         <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2605,7 +2601,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -2620,7 +2616,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -2631,7 +2627,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2660,7 +2656,7 @@
         <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>96</v>
@@ -2713,7 +2709,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -2728,7 +2724,7 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -2739,11 +2735,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -2765,10 +2761,10 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>96</v>
@@ -2823,7 +2819,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -2849,7 +2845,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2875,10 +2871,10 @@
         <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2929,7 +2925,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -2955,7 +2951,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2978,13 +2974,13 @@
         <v>49</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3035,7 +3031,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3050,7 +3046,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3061,7 +3057,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3084,13 +3080,13 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3141,7 +3137,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3156,7 +3152,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3167,7 +3163,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3190,13 +3186,13 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3247,7 +3243,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3259,10 +3255,10 @@
         <v>39</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -3273,7 +3269,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3296,13 +3292,13 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3353,7 +3349,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
@@ -3368,7 +3364,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3379,7 +3375,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3408,7 +3404,7 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>96</v>
@@ -3461,7 +3457,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3476,7 +3472,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -3487,11 +3483,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3513,10 +3509,10 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>96</v>
@@ -3571,7 +3567,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3597,7 +3593,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3620,13 +3616,13 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3677,7 +3673,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3692,7 +3688,7 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -3703,7 +3699,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3726,13 +3722,13 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3762,7 +3758,7 @@
         <v>131</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y28" t="s" s="2">
         <v>133</v>
@@ -3783,7 +3779,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>48</v>
@@ -3798,7 +3794,7 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
